--- a/scrap/old BLM/full_organic_TOX.det.xlsx
+++ b/scrap/old BLM/full_organic_TOX.det.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\old BLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{647067BB-E361-4725-A1A4-448310294F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382D4DAD-90B7-4B8F-8801-FD1EAAFA6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="full_organic_TOX.det" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -463,7 +476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -497,11 +510,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -838,10 +851,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T57" sqref="O57:T57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -849,27 +864,27 @@
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1084,7 +1099,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>74</v>
       </c>
@@ -1278,7 +1293,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
@@ -1493,7 +1508,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>80</v>
       </c>
@@ -1708,7 +1723,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>80</v>
       </c>
@@ -1923,7 +1938,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
@@ -2138,7 +2153,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -2353,7 +2368,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>80</v>
       </c>
@@ -2568,7 +2583,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>80</v>
       </c>
@@ -2783,7 +2798,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>80</v>
       </c>
@@ -2998,7 +3013,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>80</v>
       </c>
@@ -3213,7 +3228,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
@@ -3428,7 +3443,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
@@ -3643,7 +3658,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>80</v>
       </c>
@@ -3858,7 +3873,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
@@ -4073,7 +4088,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
@@ -4288,7 +4303,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -4503,7 +4518,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
@@ -4718,7 +4733,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
@@ -4933,7 +4948,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>80</v>
       </c>
@@ -5148,7 +5163,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>80</v>
       </c>
@@ -5363,7 +5378,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
@@ -5578,7 +5593,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
@@ -5793,7 +5808,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
@@ -6008,7 +6023,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>80</v>
       </c>
@@ -6223,7 +6238,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
@@ -6438,7 +6453,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
@@ -6653,7 +6668,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>80</v>
       </c>
@@ -6868,7 +6883,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>80</v>
       </c>
@@ -7083,7 +7098,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>80</v>
       </c>
@@ -7298,7 +7313,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>80</v>
       </c>
@@ -7513,7 +7528,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>80</v>
       </c>
@@ -7728,7 +7743,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -7943,7 +7958,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>80</v>
       </c>
@@ -8158,7 +8173,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>80</v>
       </c>
@@ -8373,7 +8388,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -8588,7 +8603,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -8803,7 +8818,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -9018,7 +9033,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>80</v>
       </c>
@@ -9233,7 +9248,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>80</v>
       </c>
@@ -9448,7 +9463,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
@@ -9663,7 +9678,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>80</v>
       </c>
@@ -9878,7 +9893,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>80</v>
       </c>
@@ -10093,7 +10108,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>80</v>
       </c>
@@ -10308,7 +10323,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>80</v>
       </c>
@@ -10523,7 +10538,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>80</v>
       </c>
@@ -10738,7 +10753,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>80</v>
       </c>
@@ -10953,7 +10968,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>80</v>
       </c>
@@ -11168,7 +11183,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>80</v>
       </c>
@@ -11383,7 +11398,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>80</v>
       </c>
@@ -11598,7 +11613,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>80</v>
       </c>
@@ -11813,7 +11828,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:71" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>80</v>
       </c>
@@ -12028,7 +12043,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>80</v>
       </c>
@@ -12243,7 +12258,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>80</v>
       </c>
@@ -12458,7 +12473,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>80</v>
       </c>
@@ -12673,7 +12688,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>80</v>
       </c>
@@ -12888,7 +12903,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>80</v>
       </c>
@@ -13103,7 +13118,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
@@ -13318,7 +13333,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>80</v>
       </c>
@@ -13533,7 +13548,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>80</v>
       </c>
@@ -13748,7 +13763,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>80</v>
       </c>
@@ -13963,7 +13978,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>80</v>
       </c>
@@ -14178,7 +14193,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>80</v>
       </c>
@@ -14393,7 +14408,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>80</v>
       </c>
@@ -14608,7 +14623,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>80</v>
       </c>
@@ -14823,7 +14838,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>80</v>
       </c>
@@ -15038,7 +15053,7 @@
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>80</v>
       </c>
